--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2671959.29903465</v>
+        <v>2669665.703578055</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>59.94668330577097</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>59.48550737293807</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>76.30362177848122</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -835,7 +835,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>68.11015198958127</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>16.61609021059812</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>99.84759100840529</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>239.1293185150375</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316061</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>9.146142788179411</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576152</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968927</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.040280862504</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="C2" t="n">
-        <v>1682.077763922092</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="D2" t="n">
-        <v>1323.812065315342</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>938.0238127170976</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>527.0379079274901</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>111.3331576517789</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>111.3331576517789</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,7 +4331,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926626</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>2437.640120926626</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193029</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507746</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565137</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624726</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179753</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>599.325099419731</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>188.3391946301235</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>177.307148515524</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629259</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1751.913851851648</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1530.147236421175</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1241.044369546818</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>986.3598813409312</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>696.9427113039706</v>
+        <v>779.0537804657818</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>551.0642295677644</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758595</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.169188758595</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1519.903490151844</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.1152375536</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>723.1293327639926</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>308.056882608989</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>370.0144869816385</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703794</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694706</v>
@@ -5543,22 +5543,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745235</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5759,43 +5759,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5841,13 +5841,13 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797747</v>
@@ -6184,13 +6184,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,16 +6315,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,34 +6716,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,13 +7017,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400708</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400708</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400708</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,31 +7093,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138406</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703105</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7786,19 +7786,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143854</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-9.355490342464313e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>61.40075786968296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941879</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659142</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="15">
@@ -26314,22 +26314,22 @@
         <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520051</v>
@@ -26338,19 +26338,19 @@
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520048</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121054</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605442</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.1790931203</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312027</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.144321768916</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9947.144321768932</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9947.144321768901</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768952</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9947.14432176895</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9947.144321768939</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9947.144321768883</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768868</v>
+        <v>9947.14432176891</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768872</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26522,46 +26522,46 @@
         <v>-688786.5505315593</v>
       </c>
       <c r="C6" t="n">
-        <v>256326.5546248074</v>
+        <v>256326.5546248077</v>
       </c>
       <c r="D6" t="n">
-        <v>459765.2962369131</v>
+        <v>459765.2962369127</v>
       </c>
       <c r="E6" t="n">
-        <v>209235.1437989736</v>
+        <v>209200.4058735379</v>
       </c>
       <c r="F6" t="n">
-        <v>534647.6056063292</v>
+        <v>534612.8676808934</v>
       </c>
       <c r="G6" t="n">
-        <v>534647.6056063289</v>
+        <v>534612.8676808935</v>
       </c>
       <c r="H6" t="n">
-        <v>534647.6056063288</v>
+        <v>534612.8676808936</v>
       </c>
       <c r="I6" t="n">
-        <v>534647.6056063292</v>
+        <v>534612.8676808935</v>
       </c>
       <c r="J6" t="n">
-        <v>367042.4277963464</v>
+        <v>367007.6898709109</v>
       </c>
       <c r="K6" t="n">
-        <v>485537.5129002745</v>
+        <v>485502.7749748386</v>
       </c>
       <c r="L6" t="n">
-        <v>534647.6056063292</v>
+        <v>534612.8676808935</v>
       </c>
       <c r="M6" t="n">
-        <v>449592.5776708172</v>
+        <v>449557.8397453814</v>
       </c>
       <c r="N6" t="n">
-        <v>534647.6056063294</v>
+        <v>534612.8676808934</v>
       </c>
       <c r="O6" t="n">
-        <v>534647.6056063292</v>
+        <v>534612.8676808932</v>
       </c>
       <c r="P6" t="n">
-        <v>534647.6056063289</v>
+        <v>534612.8676808932</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022537</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>294.736358314912</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.224405299532421</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>90.94319932014662</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181399</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>226.4976123977392</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>332.6248785068149</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>186.3642471972076</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>55.47844587228292</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.191232646863</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090803</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-5.377319120776078e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-2.91031474221701e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175652</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,19 +32783,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34778,7 +34778,7 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578702</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34787,19 +34787,19 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902925</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
